--- a/StructureDefinition-pco-bothersome-health-concern.xlsx
+++ b/StructureDefinition-pco-bothersome-health-concern.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -687,6 +687,23 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
+    <t>Observation.category:bothersome</t>
+  </si>
+  <si>
+    <t>bothersome</t>
+  </si>
+  <si>
+    <t>Bothersome Health Concern category</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/pco-codes"/&gt;
+    &lt;code value="bothersome-health-concern"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -761,7 +778,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|Observation)
 </t>
   </si>
   <si>
@@ -1794,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3903,15 +3920,17 @@
         <v>213</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>92</v>
@@ -3923,7 +3942,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3932,13 +3951,13 @@
         <v>215</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3948,7 +3967,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -3965,9 +3984,11 @@
       <c r="X18" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y18" s="2"/>
+      <c r="Y18" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3985,13 +4006,13 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
@@ -4000,34 +4021,34 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4046,19 +4067,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4083,13 +4104,11 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4107,10 +4126,10 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>92</v>
@@ -4122,30 +4141,30 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4153,10 +4172,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>93</v>
@@ -4168,18 +4187,20 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4227,13 +4248,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4242,19 +4263,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4262,24 +4283,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4288,20 +4309,18 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4349,13 +4368,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4364,19 +4383,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4384,14 +4403,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4401,7 +4420,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4410,19 +4429,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4471,7 +4490,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4486,19 +4505,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4506,14 +4525,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4523,7 +4542,7 @@
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -4532,18 +4551,20 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4591,7 +4612,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4606,19 +4627,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4626,10 +4647,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4640,10 +4661,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4652,18 +4673,18 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4711,13 +4732,13 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
@@ -4726,19 +4747,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4746,10 +4767,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4757,10 +4778,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>93</v>
@@ -4772,19 +4793,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4833,45 +4852,45 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4879,34 +4898,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4931,13 +4950,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4955,7 +4974,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4964,7 +4983,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4973,38 +4992,38 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5019,16 +5038,16 @@
         <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5053,13 +5072,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5077,16 +5096,16 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5095,31 +5114,31 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5138,19 +5157,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5175,13 +5194,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5199,7 +5218,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5217,27 +5236,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5248,10 +5267,10 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
@@ -5260,18 +5279,20 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5295,13 +5316,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5319,13 +5340,13 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5337,27 +5358,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5383,17 +5404,15 @@
         <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5417,31 +5436,31 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5459,27 +5478,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5502,18 +5521,20 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5537,13 +5558,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5561,7 +5582,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5579,27 +5600,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5622,16 +5643,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5681,7 +5702,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5699,27 +5720,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5730,7 +5751,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5742,20 +5763,18 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5803,45 +5822,45 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5852,7 +5871,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5864,16 +5883,20 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5921,19 +5944,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5942,10 +5965,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5956,21 +5979,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5982,17 +6005,15 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>374</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6041,31 +6062,31 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6083,7 +6104,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>380</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6096,26 +6117,24 @@
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O36" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6163,7 +6182,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6187,7 +6206,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6198,42 +6217,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6281,19 +6304,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6302,10 +6325,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6316,10 +6339,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6342,13 +6365,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6399,7 +6422,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6408,7 +6431,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6420,7 +6443,7 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>394</v>
@@ -6460,7 +6483,7 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>389</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>396</v>
@@ -6468,12 +6491,8 @@
       <c r="M39" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>399</v>
-      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6497,13 +6516,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6530,7 +6549,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6539,13 +6558,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6556,10 +6575,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6570,7 +6589,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6585,16 +6604,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6619,13 +6638,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>326</v>
+        <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6643,13 +6662,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6661,13 +6680,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6678,10 +6697,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6692,7 +6711,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6704,17 +6723,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6739,13 +6760,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6763,13 +6784,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6781,13 +6802,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6798,10 +6819,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6824,16 +6845,18 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6881,7 +6904,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6902,7 +6925,7 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>420</v>
@@ -6930,7 +6953,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6939,20 +6962,18 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7007,7 +7028,7 @@
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7022,10 +7043,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7036,10 +7057,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7062,16 +7083,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7121,7 +7142,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7142,10 +7163,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7156,10 +7177,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7182,20 +7203,18 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>438</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7243,7 +7262,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7264,10 +7283,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7278,10 +7297,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7292,7 +7311,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7301,19 +7320,23 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7361,19 +7384,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7382,10 +7405,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7396,21 +7419,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7422,17 +7445,15 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7481,31 +7502,31 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7516,14 +7537,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>380</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7536,26 +7557,24 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O48" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7603,7 +7622,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7627,7 +7646,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7638,45 +7657,45 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>447</v>
+        <v>154</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7701,13 +7720,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7725,34 +7744,34 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7760,10 +7779,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7771,7 +7790,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>92</v>
@@ -7786,19 +7805,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>452</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>284</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7823,13 +7842,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7847,10 +7866,10 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>92</v>
@@ -7865,27 +7884,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7905,22 +7924,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>457</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7945,13 +7964,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7969,7 +7988,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7978,7 +7997,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7987,19 +8006,19 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -8011,14 +8030,14 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8033,16 +8052,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>306</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8067,13 +8086,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8097,10 +8116,10 @@
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8109,31 +8128,31 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8152,19 +8171,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>463</v>
+        <v>309</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8189,13 +8208,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8213,7 +8232,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8231,23 +8250,145 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="AN53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
+      <c r="O54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8257,7 +8398,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-bothersome-health-concern.xlsx
+++ b/StructureDefinition-pco-bothersome-health-concern.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
